--- a/contact_site/auto_message_template.xlsx
+++ b/contact_site/auto_message_template.xlsx
@@ -817,7 +817,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -925,6 +925,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -967,21 +994,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -991,16 +1003,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1306,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF8" sqref="AF8"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BQ5" sqref="BQ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1380,189 +1383,189 @@
   <sheetData>
     <row r="1" spans="2:70" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:70" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="38"/>
-      <c r="BD2" s="41" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="46"/>
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="46"/>
+      <c r="AP2" s="46"/>
+      <c r="AQ2" s="46"/>
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="46"/>
+      <c r="AV2" s="46"/>
+      <c r="AW2" s="46"/>
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="46"/>
+      <c r="BA2" s="46"/>
+      <c r="BB2" s="46"/>
+      <c r="BC2" s="47"/>
+      <c r="BD2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="BE2" s="42"/>
-      <c r="BF2" s="42"/>
-      <c r="BG2" s="42"/>
-      <c r="BH2" s="42"/>
-      <c r="BI2" s="42"/>
-      <c r="BJ2" s="42"/>
-      <c r="BK2" s="42"/>
-      <c r="BL2" s="42"/>
-      <c r="BM2" s="42"/>
-      <c r="BN2" s="42"/>
-      <c r="BO2" s="42"/>
-      <c r="BP2" s="42"/>
-      <c r="BQ2" s="42"/>
-      <c r="BR2" s="43"/>
+      <c r="BE2" s="51"/>
+      <c r="BF2" s="51"/>
+      <c r="BG2" s="51"/>
+      <c r="BH2" s="51"/>
+      <c r="BI2" s="51"/>
+      <c r="BJ2" s="51"/>
+      <c r="BK2" s="51"/>
+      <c r="BL2" s="51"/>
+      <c r="BM2" s="51"/>
+      <c r="BN2" s="51"/>
+      <c r="BO2" s="51"/>
+      <c r="BP2" s="51"/>
+      <c r="BQ2" s="51"/>
+      <c r="BR2" s="52"/>
     </row>
     <row r="3" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="50" t="s">
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="50" t="s">
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="50" t="s">
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="52"/>
-      <c r="U3" s="50" t="s">
+      <c r="T3" s="39"/>
+      <c r="U3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="50" t="s">
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="50" t="s">
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="50" t="s">
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="AI3" s="51"/>
-      <c r="AJ3" s="51"/>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="51"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="55" t="s">
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="39"/>
+      <c r="AP3" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="56"/>
-      <c r="AU3" s="56"/>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="55" t="s">
+      <c r="AQ3" s="60"/>
+      <c r="AR3" s="60"/>
+      <c r="AS3" s="60"/>
+      <c r="AT3" s="60"/>
+      <c r="AU3" s="60"/>
+      <c r="AV3" s="61"/>
+      <c r="AW3" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="56"/>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="56"/>
-      <c r="BB3" s="56"/>
-      <c r="BC3" s="57"/>
-      <c r="BD3" s="58" t="s">
+      <c r="AX3" s="60"/>
+      <c r="AY3" s="60"/>
+      <c r="AZ3" s="60"/>
+      <c r="BA3" s="60"/>
+      <c r="BB3" s="60"/>
+      <c r="BC3" s="61"/>
+      <c r="BD3" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="BE3" s="53" t="s">
+      <c r="BE3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="BF3" s="60"/>
-      <c r="BG3" s="60"/>
-      <c r="BH3" s="60"/>
-      <c r="BI3" s="60"/>
-      <c r="BJ3" s="60"/>
-      <c r="BK3" s="60"/>
-      <c r="BL3" s="60"/>
-      <c r="BM3" s="60"/>
-      <c r="BN3" s="60"/>
-      <c r="BO3" s="60"/>
-      <c r="BP3" s="54"/>
-      <c r="BQ3" s="53" t="s">
+      <c r="BF3" s="43"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="43"/>
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="43"/>
+      <c r="BL3" s="43"/>
+      <c r="BM3" s="43"/>
+      <c r="BN3" s="43"/>
+      <c r="BO3" s="43"/>
+      <c r="BP3" s="44"/>
+      <c r="BQ3" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="BR3" s="54"/>
+      <c r="BR3" s="44"/>
     </row>
     <row r="4" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="45"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="49"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1716,7 +1719,7 @@
       <c r="BC4" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="BD4" s="59"/>
+      <c r="BD4" s="41"/>
       <c r="BE4" s="9" t="s">
         <v>35</v>
       </c>
@@ -1791,7 +1794,7 @@
       <c r="AC5" s="20"/>
       <c r="AD5" s="13"/>
       <c r="AE5" s="15"/>
-      <c r="AF5" s="61"/>
+      <c r="AF5" s="36"/>
       <c r="AG5" s="13"/>
       <c r="AH5" s="15"/>
       <c r="AI5" s="20"/>
@@ -1828,13 +1831,16 @@
       <c r="BN5" s="26"/>
       <c r="BO5" s="26"/>
       <c r="BP5" s="27"/>
-      <c r="BQ5" s="12"/>
+      <c r="BQ5" s="62"/>
       <c r="BR5" s="24"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <dataConsolidate/>
   <mergeCells count="19">
+    <mergeCell ref="AW3:BC3"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
     <mergeCell ref="AH3:AO3"/>
     <mergeCell ref="BD3:BD4"/>
     <mergeCell ref="BE3:BP3"/>
@@ -1851,9 +1857,6 @@
     <mergeCell ref="BQ3:BR3"/>
     <mergeCell ref="U3:X3"/>
     <mergeCell ref="AP3:AV3"/>
-    <mergeCell ref="AW3:BC3"/>
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/contact_site/auto_message_template.xlsx
+++ b/contact_site/auto_message_template.xlsx
@@ -928,6 +928,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -993,18 +1005,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1309,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BQ5" sqref="BQ5"/>
+    <sheetView tabSelected="1" topLeftCell="BC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BF5" sqref="BF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1383,189 +1383,189 @@
   <sheetData>
     <row r="1" spans="2:70" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:70" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="45" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46"/>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46"/>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="46"/>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="46"/>
-      <c r="BB2" s="46"/>
-      <c r="BC2" s="47"/>
-      <c r="BD2" s="50" t="s">
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="50"/>
+      <c r="AT2" s="50"/>
+      <c r="AU2" s="50"/>
+      <c r="AV2" s="50"/>
+      <c r="AW2" s="50"/>
+      <c r="AX2" s="50"/>
+      <c r="AY2" s="50"/>
+      <c r="AZ2" s="50"/>
+      <c r="BA2" s="50"/>
+      <c r="BB2" s="50"/>
+      <c r="BC2" s="51"/>
+      <c r="BD2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="BE2" s="51"/>
-      <c r="BF2" s="51"/>
-      <c r="BG2" s="51"/>
-      <c r="BH2" s="51"/>
-      <c r="BI2" s="51"/>
-      <c r="BJ2" s="51"/>
-      <c r="BK2" s="51"/>
-      <c r="BL2" s="51"/>
-      <c r="BM2" s="51"/>
-      <c r="BN2" s="51"/>
-      <c r="BO2" s="51"/>
-      <c r="BP2" s="51"/>
-      <c r="BQ2" s="51"/>
-      <c r="BR2" s="52"/>
+      <c r="BE2" s="55"/>
+      <c r="BF2" s="55"/>
+      <c r="BG2" s="55"/>
+      <c r="BH2" s="55"/>
+      <c r="BI2" s="55"/>
+      <c r="BJ2" s="55"/>
+      <c r="BK2" s="55"/>
+      <c r="BL2" s="55"/>
+      <c r="BM2" s="55"/>
+      <c r="BN2" s="55"/>
+      <c r="BO2" s="55"/>
+      <c r="BP2" s="55"/>
+      <c r="BQ2" s="55"/>
+      <c r="BR2" s="56"/>
     </row>
     <row r="3" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="37" t="s">
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="37" t="s">
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="37" t="s">
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="39"/>
-      <c r="U3" s="37" t="s">
+      <c r="T3" s="43"/>
+      <c r="U3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="37" t="s">
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="37" t="s">
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="37" t="s">
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="39"/>
-      <c r="AP3" s="59" t="s">
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="AQ3" s="60"/>
-      <c r="AR3" s="60"/>
-      <c r="AS3" s="60"/>
-      <c r="AT3" s="60"/>
-      <c r="AU3" s="60"/>
-      <c r="AV3" s="61"/>
-      <c r="AW3" s="59" t="s">
+      <c r="AQ3" s="39"/>
+      <c r="AR3" s="39"/>
+      <c r="AS3" s="39"/>
+      <c r="AT3" s="39"/>
+      <c r="AU3" s="39"/>
+      <c r="AV3" s="40"/>
+      <c r="AW3" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="AX3" s="60"/>
-      <c r="AY3" s="60"/>
-      <c r="AZ3" s="60"/>
-      <c r="BA3" s="60"/>
-      <c r="BB3" s="60"/>
-      <c r="BC3" s="61"/>
-      <c r="BD3" s="40" t="s">
+      <c r="AX3" s="39"/>
+      <c r="AY3" s="39"/>
+      <c r="AZ3" s="39"/>
+      <c r="BA3" s="39"/>
+      <c r="BB3" s="39"/>
+      <c r="BC3" s="40"/>
+      <c r="BD3" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="BE3" s="42" t="s">
+      <c r="BE3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="BF3" s="43"/>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="43"/>
-      <c r="BI3" s="43"/>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="43"/>
-      <c r="BL3" s="43"/>
-      <c r="BM3" s="43"/>
-      <c r="BN3" s="43"/>
-      <c r="BO3" s="43"/>
-      <c r="BP3" s="44"/>
-      <c r="BQ3" s="42" t="s">
+      <c r="BF3" s="47"/>
+      <c r="BG3" s="47"/>
+      <c r="BH3" s="47"/>
+      <c r="BI3" s="47"/>
+      <c r="BJ3" s="47"/>
+      <c r="BK3" s="47"/>
+      <c r="BL3" s="47"/>
+      <c r="BM3" s="47"/>
+      <c r="BN3" s="47"/>
+      <c r="BO3" s="47"/>
+      <c r="BP3" s="48"/>
+      <c r="BQ3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="BR3" s="44"/>
+      <c r="BR3" s="48"/>
     </row>
     <row r="4" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="54"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1719,7 +1719,7 @@
       <c r="BC4" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="BD4" s="41"/>
+      <c r="BD4" s="45"/>
       <c r="BE4" s="9" t="s">
         <v>35</v>
       </c>
@@ -1820,7 +1820,7 @@
       <c r="BC5" s="34"/>
       <c r="BD5" s="21"/>
       <c r="BE5" s="22"/>
-      <c r="BF5" s="23"/>
+      <c r="BF5" s="26"/>
       <c r="BG5" s="23"/>
       <c r="BH5" s="23"/>
       <c r="BI5" s="23"/>
@@ -1831,18 +1831,13 @@
       <c r="BN5" s="26"/>
       <c r="BO5" s="26"/>
       <c r="BP5" s="27"/>
-      <c r="BQ5" s="62"/>
+      <c r="BQ5" s="37"/>
       <c r="BR5" s="24"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <dataConsolidate/>
   <mergeCells count="19">
-    <mergeCell ref="AW3:BC3"/>
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AO3"/>
-    <mergeCell ref="BD3:BD4"/>
     <mergeCell ref="BE3:BP3"/>
     <mergeCell ref="D2:BC2"/>
     <mergeCell ref="B2:C2"/>
@@ -1857,6 +1852,11 @@
     <mergeCell ref="BQ3:BR3"/>
     <mergeCell ref="U3:X3"/>
     <mergeCell ref="AP3:AV3"/>
+    <mergeCell ref="AW3:BC3"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AO3"/>
+    <mergeCell ref="BD3:BD4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/contact_site/auto_message_template.xlsx
+++ b/contact_site/auto_message_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
     <t>基本設定</t>
   </si>
@@ -22,9 +22,6 @@
     <t>条件詳細設定</t>
   </si>
   <si>
-    <t>実行設定</t>
-  </si>
-  <si>
     <t>状態</t>
   </si>
   <si>
@@ -52,15 +49,6 @@
     <t>参照元URL（リファラー）</t>
   </si>
   <si>
-    <t>アクション</t>
-  </si>
-  <si>
-    <t>チャットメッセージを送る</t>
-  </si>
-  <si>
-    <t>シナリオを選択する</t>
-  </si>
-  <si>
     <t>設定</t>
   </si>
   <si>
@@ -119,45 +107,6 @@
   </si>
   <si>
     <t>発動回数</t>
-  </si>
-  <si>
-    <t>ウィジェット最大化</t>
-  </si>
-  <si>
-    <t>メッセージ</t>
-  </si>
-  <si>
-    <t>自由入力エリア</t>
-  </si>
-  <si>
-    <t>成果にCVとして登録</t>
-  </si>
-  <si>
-    <t>メール送信</t>
-  </si>
-  <si>
-    <t>送信先メールアドレス１</t>
-  </si>
-  <si>
-    <t>送信先メールアドレス２</t>
-  </si>
-  <si>
-    <t>送信先メールアドレス３</t>
-  </si>
-  <si>
-    <t>送信先メールアドレス４</t>
-  </si>
-  <si>
-    <t>送信先メールアドレス５</t>
-  </si>
-  <si>
-    <t>メールタイトル</t>
-  </si>
-  <si>
-    <t>差出人名</t>
-  </si>
-  <si>
-    <t>シナリオ</t>
   </si>
   <si>
     <t>最初に訪れたページ</t>
@@ -240,6 +189,148 @@
   </si>
   <si>
     <t>発言内容</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>実行設定</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>アクション</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>チャットメッセージを送る</t>
+    <rPh sb="10" eb="11">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>シナリオを呼び出す</t>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>オートメッセージを呼び出す</t>
+    <rPh sb="9" eb="10">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ウィジェット最大化</t>
+    <rPh sb="6" eb="9">
+      <t>サイダイカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>メッセージ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>自由入力エリア</t>
+    <rPh sb="0" eb="2">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>成果にCVとして登録</t>
+    <rPh sb="0" eb="2">
+      <t>セイカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>メール送信</t>
+    <rPh sb="3" eb="5">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>送信先メールアドレス１</t>
+    <rPh sb="0" eb="3">
+      <t>ソウシンサキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>送信先メールアドレス２</t>
+    <rPh sb="0" eb="3">
+      <t>ソウシンサキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>送信先メールアドレス３</t>
+    <rPh sb="0" eb="3">
+      <t>ソウシンサキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>送信先メールアドレス４</t>
+    <rPh sb="0" eb="3">
+      <t>ソウシンサキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>送信先メールアドレス５</t>
+    <rPh sb="0" eb="3">
+      <t>ソウシンサキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>メールタイトル</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>差出人名</t>
+    <rPh sb="0" eb="4">
+      <t>サシダシニンメイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>シナリオ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>呼び出し先</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サキ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -247,7 +338,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -303,6 +394,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -317,12 +415,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDAEEF3"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDBE5F1"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -344,8 +436,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -731,17 +829,30 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top/>
@@ -751,41 +862,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,31 +878,143 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -843,15 +1040,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -883,34 +1071,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -931,14 +1116,38 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -949,66 +1158,67 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -1309,9 +1519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BF5" sqref="BF5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1319,529 +1527,540 @@
     <col min="2" max="2" width="5.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="7.125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="5.375" style="25" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="7" style="25" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="25" customWidth="1"/>
-    <col min="11" max="11" width="5.375" style="25" customWidth="1"/>
-    <col min="12" max="12" width="6.875" style="25" customWidth="1"/>
-    <col min="13" max="13" width="9.125" style="25"/>
-    <col min="14" max="14" width="21.625" style="25" customWidth="1"/>
-    <col min="15" max="15" width="17.375" style="25" customWidth="1"/>
-    <col min="16" max="16" width="23.625" style="25" customWidth="1"/>
-    <col min="17" max="17" width="18.625" style="25" customWidth="1"/>
-    <col min="18" max="18" width="9.125" style="25"/>
-    <col min="19" max="19" width="7.5" style="25" customWidth="1"/>
-    <col min="20" max="20" width="11.125" style="25" customWidth="1"/>
-    <col min="21" max="21" width="7.75" style="25" customWidth="1"/>
-    <col min="22" max="22" width="23.375" style="25" customWidth="1"/>
-    <col min="23" max="24" width="9.875" style="25" customWidth="1"/>
-    <col min="25" max="25" width="6.875" style="25" customWidth="1"/>
-    <col min="26" max="26" width="15.625" style="25" customWidth="1"/>
-    <col min="27" max="27" width="17.375" style="25" customWidth="1"/>
-    <col min="28" max="29" width="17.875" style="25" customWidth="1"/>
-    <col min="30" max="30" width="9.125" style="25"/>
-    <col min="31" max="31" width="6.75" style="25" customWidth="1"/>
-    <col min="32" max="32" width="15.875" style="25" customWidth="1"/>
-    <col min="33" max="33" width="9.125" style="25"/>
-    <col min="34" max="34" width="7" style="25" customWidth="1"/>
-    <col min="35" max="35" width="22.125" style="25" customWidth="1"/>
-    <col min="36" max="36" width="17.375" style="25" customWidth="1"/>
-    <col min="37" max="37" width="23.625" style="25" customWidth="1"/>
-    <col min="38" max="38" width="18.625" style="25" customWidth="1"/>
-    <col min="39" max="39" width="9.125" style="25"/>
-    <col min="40" max="40" width="19.625" style="25" customWidth="1"/>
-    <col min="41" max="41" width="13.125" style="25" customWidth="1"/>
-    <col min="42" max="42" width="6.875" style="25" customWidth="1"/>
-    <col min="43" max="43" width="13.125" style="25" customWidth="1"/>
-    <col min="44" max="44" width="23" style="25" customWidth="1"/>
-    <col min="45" max="45" width="16.75" style="25" customWidth="1"/>
-    <col min="46" max="46" width="23.5" style="25" customWidth="1"/>
-    <col min="47" max="47" width="19.375" style="25" customWidth="1"/>
-    <col min="48" max="48" width="10.625" style="25" customWidth="1"/>
-    <col min="49" max="49" width="7.125" style="25" customWidth="1"/>
-    <col min="50" max="50" width="13.125" style="25" customWidth="1"/>
-    <col min="51" max="51" width="22.625" style="25" customWidth="1"/>
-    <col min="52" max="52" width="18.625" style="25" customWidth="1"/>
-    <col min="53" max="53" width="24" style="25" customWidth="1"/>
-    <col min="54" max="54" width="19" style="25" customWidth="1"/>
-    <col min="55" max="55" width="11.25" style="25" customWidth="1"/>
-    <col min="56" max="56" width="25.625" style="25" customWidth="1"/>
-    <col min="57" max="57" width="25.875" style="25" customWidth="1"/>
-    <col min="58" max="58" width="37.625" style="25" customWidth="1"/>
-    <col min="59" max="59" width="21.375" style="25" customWidth="1"/>
-    <col min="60" max="60" width="20.5" style="25" customWidth="1"/>
-    <col min="61" max="61" width="11.125" style="25" customWidth="1"/>
-    <col min="62" max="66" width="23.625" style="25" customWidth="1"/>
-    <col min="67" max="67" width="32.125" style="25" customWidth="1"/>
-    <col min="68" max="68" width="18.125" style="25" customWidth="1"/>
-    <col min="69" max="69" width="16.375" style="25" customWidth="1"/>
+    <col min="5" max="6" width="7.125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="5.375" style="21" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="7" style="21" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="21" customWidth="1"/>
+    <col min="11" max="11" width="5.375" style="21" customWidth="1"/>
+    <col min="12" max="12" width="6.875" style="21" customWidth="1"/>
+    <col min="13" max="13" width="9.125" style="21"/>
+    <col min="14" max="14" width="21.625" style="21" customWidth="1"/>
+    <col min="15" max="15" width="17.375" style="21" customWidth="1"/>
+    <col min="16" max="16" width="23.625" style="21" customWidth="1"/>
+    <col min="17" max="17" width="18.625" style="21" customWidth="1"/>
+    <col min="18" max="18" width="9.125" style="21"/>
+    <col min="19" max="19" width="7.5" style="21" customWidth="1"/>
+    <col min="20" max="20" width="11.125" style="21" customWidth="1"/>
+    <col min="21" max="21" width="7.75" style="21" customWidth="1"/>
+    <col min="22" max="22" width="23.375" style="21" customWidth="1"/>
+    <col min="23" max="24" width="9.875" style="21" customWidth="1"/>
+    <col min="25" max="25" width="6.875" style="21" customWidth="1"/>
+    <col min="26" max="26" width="15.625" style="21" customWidth="1"/>
+    <col min="27" max="27" width="17.375" style="21" customWidth="1"/>
+    <col min="28" max="29" width="17.875" style="21" customWidth="1"/>
+    <col min="30" max="30" width="9.125" style="21"/>
+    <col min="31" max="31" width="6.75" style="21" customWidth="1"/>
+    <col min="32" max="32" width="15.875" style="21" customWidth="1"/>
+    <col min="33" max="33" width="9.125" style="21"/>
+    <col min="34" max="34" width="7" style="21" customWidth="1"/>
+    <col min="35" max="35" width="22.125" style="21" customWidth="1"/>
+    <col min="36" max="36" width="17.375" style="21" customWidth="1"/>
+    <col min="37" max="37" width="23.625" style="21" customWidth="1"/>
+    <col min="38" max="38" width="18.625" style="21" customWidth="1"/>
+    <col min="39" max="39" width="9.125" style="21"/>
+    <col min="40" max="40" width="19.625" style="21" customWidth="1"/>
+    <col min="41" max="41" width="13.125" style="21" customWidth="1"/>
+    <col min="42" max="42" width="6.875" style="21" customWidth="1"/>
+    <col min="43" max="43" width="13.125" style="21" customWidth="1"/>
+    <col min="44" max="44" width="23" style="21" customWidth="1"/>
+    <col min="45" max="45" width="16.75" style="21" customWidth="1"/>
+    <col min="46" max="46" width="23.5" style="21" customWidth="1"/>
+    <col min="47" max="47" width="19.375" style="21" customWidth="1"/>
+    <col min="48" max="48" width="10.625" style="21" customWidth="1"/>
+    <col min="49" max="49" width="7.125" style="21" customWidth="1"/>
+    <col min="50" max="50" width="13.125" style="21" customWidth="1"/>
+    <col min="51" max="51" width="22.625" style="21" customWidth="1"/>
+    <col min="52" max="52" width="18.625" style="21" customWidth="1"/>
+    <col min="53" max="53" width="24" style="21" customWidth="1"/>
+    <col min="54" max="54" width="19" style="21" customWidth="1"/>
+    <col min="55" max="55" width="11.25" style="21" customWidth="1"/>
+    <col min="56" max="56" width="25.625" style="21" customWidth="1"/>
+    <col min="57" max="57" width="25.875" style="21" customWidth="1"/>
+    <col min="58" max="58" width="37.625" style="21" customWidth="1"/>
+    <col min="59" max="59" width="21.375" style="21" customWidth="1"/>
+    <col min="60" max="60" width="20.5" style="21" customWidth="1"/>
+    <col min="61" max="61" width="11.125" style="21" customWidth="1"/>
+    <col min="62" max="66" width="23.625" style="21" customWidth="1"/>
+    <col min="67" max="67" width="32.125" style="21" customWidth="1"/>
+    <col min="68" max="68" width="18.125" style="21" customWidth="1"/>
+    <col min="69" max="69" width="16.375" style="21" customWidth="1"/>
     <col min="70" max="70" width="20.125" style="1" customWidth="1"/>
-    <col min="71" max="71" width="9.125" style="1"/>
+    <col min="71" max="71" width="31.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:70" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:70" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="52" t="s">
+    <row r="1" spans="2:71" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:71" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="49" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50"/>
-      <c r="AT2" s="50"/>
-      <c r="AU2" s="50"/>
-      <c r="AV2" s="50"/>
-      <c r="AW2" s="50"/>
-      <c r="AX2" s="50"/>
-      <c r="AY2" s="50"/>
-      <c r="AZ2" s="50"/>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="51"/>
-      <c r="BD2" s="54" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="35"/>
+      <c r="AR2" s="35"/>
+      <c r="AS2" s="35"/>
+      <c r="AT2" s="35"/>
+      <c r="AU2" s="35"/>
+      <c r="AV2" s="35"/>
+      <c r="AW2" s="35"/>
+      <c r="AX2" s="35"/>
+      <c r="AY2" s="35"/>
+      <c r="AZ2" s="35"/>
+      <c r="BA2" s="35"/>
+      <c r="BB2" s="35"/>
+      <c r="BC2" s="36"/>
+      <c r="BD2" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE2" s="52"/>
+      <c r="BF2" s="52"/>
+      <c r="BG2" s="52"/>
+      <c r="BH2" s="52"/>
+      <c r="BI2" s="52"/>
+      <c r="BJ2" s="52"/>
+      <c r="BK2" s="52"/>
+      <c r="BL2" s="52"/>
+      <c r="BM2" s="52"/>
+      <c r="BN2" s="52"/>
+      <c r="BO2" s="52"/>
+      <c r="BP2" s="52"/>
+      <c r="BQ2" s="52"/>
+      <c r="BR2" s="52"/>
+      <c r="BS2" s="53"/>
+    </row>
+    <row r="3" spans="2:71" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="BE2" s="55"/>
-      <c r="BF2" s="55"/>
-      <c r="BG2" s="55"/>
-      <c r="BH2" s="55"/>
-      <c r="BI2" s="55"/>
-      <c r="BJ2" s="55"/>
-      <c r="BK2" s="55"/>
-      <c r="BL2" s="55"/>
-      <c r="BM2" s="55"/>
-      <c r="BN2" s="55"/>
-      <c r="BO2" s="55"/>
-      <c r="BP2" s="55"/>
-      <c r="BQ2" s="55"/>
-      <c r="BR2" s="56"/>
+      <c r="C3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="46"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="47"/>
+      <c r="U3" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="46"/>
+      <c r="AN3" s="46"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="49"/>
+      <c r="AT3" s="49"/>
+      <c r="AU3" s="49"/>
+      <c r="AV3" s="50"/>
+      <c r="AW3" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49"/>
+      <c r="BC3" s="50"/>
+      <c r="BD3" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE3" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="BF3" s="56"/>
+      <c r="BG3" s="56"/>
+      <c r="BH3" s="56"/>
+      <c r="BI3" s="56"/>
+      <c r="BJ3" s="56"/>
+      <c r="BK3" s="56"/>
+      <c r="BL3" s="56"/>
+      <c r="BM3" s="56"/>
+      <c r="BN3" s="56"/>
+      <c r="BO3" s="56"/>
+      <c r="BP3" s="57"/>
+      <c r="BQ3" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="BR3" s="56"/>
+      <c r="BS3" s="58" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="3" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="41" t="s">
+    <row r="4" spans="2:71" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="40"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" s="43"/>
-      <c r="U3" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="41" t="s">
+      <c r="K4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="41" t="s">
+      <c r="M4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP4" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ4" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR4" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS4" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT4" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU4" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV4" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW4" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX4" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AY4" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ4" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA4" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB4" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC4" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD4" s="59"/>
+      <c r="BE4" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="BF4" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="BG4" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH4" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="BI4" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="BJ4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="BK4" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="BL4" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="BM4" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="BN4" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO4" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="41" t="s">
+      <c r="BP4" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ3" s="39"/>
-      <c r="AR3" s="39"/>
-      <c r="AS3" s="39"/>
-      <c r="AT3" s="39"/>
-      <c r="AU3" s="39"/>
-      <c r="AV3" s="40"/>
-      <c r="AW3" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX3" s="39"/>
-      <c r="AY3" s="39"/>
-      <c r="AZ3" s="39"/>
-      <c r="BA3" s="39"/>
-      <c r="BB3" s="39"/>
-      <c r="BC3" s="40"/>
-      <c r="BD3" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="BE3" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="BF3" s="47"/>
-      <c r="BG3" s="47"/>
-      <c r="BH3" s="47"/>
-      <c r="BI3" s="47"/>
-      <c r="BJ3" s="47"/>
-      <c r="BK3" s="47"/>
-      <c r="BL3" s="47"/>
-      <c r="BM3" s="47"/>
-      <c r="BN3" s="47"/>
-      <c r="BO3" s="47"/>
-      <c r="BP3" s="48"/>
-      <c r="BQ3" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="BR3" s="48"/>
+      <c r="BQ4" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="BR4" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="BS4" s="63" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="4" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="58"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP4" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ4" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR4" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="AS4" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="AT4" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU4" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV4" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW4" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="AX4" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="AY4" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="AZ4" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="BA4" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB4" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC4" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD4" s="45"/>
-      <c r="BE4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="BF4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="BH4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="BI4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="BJ4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="BK4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="BL4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="BM4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="BN4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="BO4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="BP4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="BQ4" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="BR4" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="2:70" x14ac:dyDescent="0.15">
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="20"/>
-      <c r="AL5" s="20"/>
-      <c r="AM5" s="20"/>
-      <c r="AN5" s="20"/>
-      <c r="AO5" s="17"/>
-      <c r="AP5" s="32"/>
-      <c r="AQ5" s="33"/>
-      <c r="AR5" s="35"/>
-      <c r="AS5" s="33"/>
-      <c r="AT5" s="33"/>
-      <c r="AU5" s="33"/>
-      <c r="AV5" s="34"/>
-      <c r="AW5" s="32"/>
-      <c r="AX5" s="33"/>
-      <c r="AY5" s="35"/>
-      <c r="AZ5" s="33"/>
-      <c r="BA5" s="33"/>
-      <c r="BB5" s="33"/>
-      <c r="BC5" s="34"/>
-      <c r="BD5" s="21"/>
-      <c r="BE5" s="22"/>
-      <c r="BF5" s="26"/>
-      <c r="BG5" s="23"/>
-      <c r="BH5" s="23"/>
-      <c r="BI5" s="23"/>
-      <c r="BJ5" s="26"/>
-      <c r="BK5" s="26"/>
-      <c r="BL5" s="26"/>
-      <c r="BM5" s="26"/>
-      <c r="BN5" s="26"/>
-      <c r="BO5" s="26"/>
-      <c r="BP5" s="27"/>
-      <c r="BQ5" s="37"/>
-      <c r="BR5" s="24"/>
+    <row r="5" spans="2:71" x14ac:dyDescent="0.15">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="17"/>
+      <c r="AM5" s="17"/>
+      <c r="AN5" s="17"/>
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="28"/>
+      <c r="AQ5" s="29"/>
+      <c r="AR5" s="31"/>
+      <c r="AS5" s="29"/>
+      <c r="AT5" s="29"/>
+      <c r="AU5" s="29"/>
+      <c r="AV5" s="30"/>
+      <c r="AW5" s="28"/>
+      <c r="AX5" s="29"/>
+      <c r="AY5" s="31"/>
+      <c r="AZ5" s="29"/>
+      <c r="BA5" s="29"/>
+      <c r="BB5" s="29"/>
+      <c r="BC5" s="30"/>
+      <c r="BD5" s="18"/>
+      <c r="BE5" s="19"/>
+      <c r="BF5" s="22"/>
+      <c r="BG5" s="20"/>
+      <c r="BH5" s="20"/>
+      <c r="BI5" s="20"/>
+      <c r="BJ5" s="22"/>
+      <c r="BK5" s="22"/>
+      <c r="BL5" s="22"/>
+      <c r="BM5" s="22"/>
+      <c r="BN5" s="22"/>
+      <c r="BO5" s="22"/>
+      <c r="BP5" s="23"/>
+      <c r="BQ5" s="33"/>
+      <c r="BR5" s="65"/>
+      <c r="BS5" s="66"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <dataConsolidate/>
   <mergeCells count="19">
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AO3"/>
+    <mergeCell ref="BD3:BD4"/>
+    <mergeCell ref="BD2:BS2"/>
     <mergeCell ref="BE3:BP3"/>
     <mergeCell ref="D2:BC2"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="BD2:BR2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
@@ -1854,9 +2073,6 @@
     <mergeCell ref="AP3:AV3"/>
     <mergeCell ref="AW3:BC3"/>
     <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AO3"/>
-    <mergeCell ref="BD3:BD4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/contact_site/auto_message_template.xlsx
+++ b/contact_site/auto_message_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>基本設定</t>
   </si>
@@ -332,6 +332,20 @@
       <t>サキ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>チャットツリーを呼び出す</t>
+    <rPh sb="8" eb="9">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>チャットツリー</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -443,7 +457,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -655,17 +669,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -949,64 +952,64 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1086,28 +1089,28 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1116,15 +1119,66 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1134,28 +1188,22 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1164,56 +1212,11 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1517,9 +1520,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BS5"/>
+  <dimension ref="A1:BU5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BL1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BU10" sqref="BU10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1587,197 +1592,205 @@
     <col min="69" max="69" width="16.375" style="21" customWidth="1"/>
     <col min="70" max="70" width="20.125" style="1" customWidth="1"/>
     <col min="71" max="71" width="31.125" style="1" customWidth="1"/>
+    <col min="72" max="72" width="19.75" customWidth="1"/>
+    <col min="73" max="73" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:71" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:71" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="37" t="s">
+    <row r="1" spans="2:73" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:73" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="34" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="35"/>
-      <c r="BB2" s="35"/>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="51" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="53"/>
+      <c r="AX2" s="53"/>
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="53"/>
+      <c r="BA2" s="53"/>
+      <c r="BB2" s="53"/>
+      <c r="BC2" s="53"/>
+      <c r="BD2" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="BE2" s="52"/>
-      <c r="BF2" s="52"/>
-      <c r="BG2" s="52"/>
-      <c r="BH2" s="52"/>
-      <c r="BI2" s="52"/>
-      <c r="BJ2" s="52"/>
-      <c r="BK2" s="52"/>
-      <c r="BL2" s="52"/>
-      <c r="BM2" s="52"/>
-      <c r="BN2" s="52"/>
-      <c r="BO2" s="52"/>
-      <c r="BP2" s="52"/>
-      <c r="BQ2" s="52"/>
-      <c r="BR2" s="52"/>
-      <c r="BS2" s="53"/>
+      <c r="BE2" s="47"/>
+      <c r="BF2" s="47"/>
+      <c r="BG2" s="47"/>
+      <c r="BH2" s="47"/>
+      <c r="BI2" s="47"/>
+      <c r="BJ2" s="47"/>
+      <c r="BK2" s="47"/>
+      <c r="BL2" s="47"/>
+      <c r="BM2" s="47"/>
+      <c r="BN2" s="47"/>
+      <c r="BO2" s="47"/>
+      <c r="BP2" s="47"/>
+      <c r="BQ2" s="47"/>
+      <c r="BR2" s="47"/>
+      <c r="BS2" s="47"/>
+      <c r="BT2" s="47"/>
+      <c r="BU2" s="48"/>
     </row>
-    <row r="3" spans="2:71" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="39" t="s">
+    <row r="3" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="45" t="s">
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="45" t="s">
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="45" t="s">
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="47"/>
-      <c r="U3" s="45" t="s">
+      <c r="T3" s="43"/>
+      <c r="U3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="45" t="s">
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="45" t="s">
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="45" t="s">
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="46"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="48" t="s">
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="49"/>
-      <c r="AS3" s="49"/>
-      <c r="AT3" s="49"/>
-      <c r="AU3" s="49"/>
-      <c r="AV3" s="50"/>
-      <c r="AW3" s="48" t="s">
+      <c r="AQ3" s="63"/>
+      <c r="AR3" s="63"/>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="63"/>
+      <c r="AU3" s="63"/>
+      <c r="AV3" s="64"/>
+      <c r="AW3" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49"/>
-      <c r="BC3" s="50"/>
-      <c r="BD3" s="54" t="s">
+      <c r="AX3" s="63"/>
+      <c r="AY3" s="63"/>
+      <c r="AZ3" s="63"/>
+      <c r="BA3" s="63"/>
+      <c r="BB3" s="63"/>
+      <c r="BC3" s="64"/>
+      <c r="BD3" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="BE3" s="55" t="s">
+      <c r="BE3" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="BF3" s="56"/>
-      <c r="BG3" s="56"/>
-      <c r="BH3" s="56"/>
-      <c r="BI3" s="56"/>
-      <c r="BJ3" s="56"/>
-      <c r="BK3" s="56"/>
-      <c r="BL3" s="56"/>
-      <c r="BM3" s="56"/>
-      <c r="BN3" s="56"/>
-      <c r="BO3" s="56"/>
-      <c r="BP3" s="57"/>
-      <c r="BQ3" s="55" t="s">
+      <c r="BF3" s="50"/>
+      <c r="BG3" s="50"/>
+      <c r="BH3" s="50"/>
+      <c r="BI3" s="50"/>
+      <c r="BJ3" s="50"/>
+      <c r="BK3" s="50"/>
+      <c r="BL3" s="50"/>
+      <c r="BM3" s="50"/>
+      <c r="BN3" s="50"/>
+      <c r="BO3" s="50"/>
+      <c r="BP3" s="51"/>
+      <c r="BQ3" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="BR3" s="56"/>
-      <c r="BS3" s="58" t="s">
+      <c r="BR3" s="50"/>
+      <c r="BS3" s="65" t="s">
         <v>46</v>
       </c>
+      <c r="BT3" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="BU3" s="51"/>
     </row>
-    <row r="4" spans="2:71" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="40"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="44"/>
+    <row r="4" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="57"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1931,54 +1944,60 @@
       <c r="BC4" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="BD4" s="59"/>
-      <c r="BE4" s="60" t="s">
+      <c r="BD4" s="45"/>
+      <c r="BE4" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="BF4" s="61" t="s">
+      <c r="BF4" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="BG4" s="61" t="s">
+      <c r="BG4" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="BH4" s="61" t="s">
+      <c r="BH4" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="BI4" s="61" t="s">
+      <c r="BI4" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="BJ4" s="61" t="s">
+      <c r="BJ4" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="BK4" s="61" t="s">
+      <c r="BK4" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="BL4" s="61" t="s">
+      <c r="BL4" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="BM4" s="61" t="s">
+      <c r="BM4" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="BN4" s="61" t="s">
+      <c r="BN4" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="BO4" s="61" t="s">
+      <c r="BO4" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="BP4" s="62" t="s">
+      <c r="BP4" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="BQ4" s="60" t="s">
+      <c r="BQ4" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="BR4" s="64" t="s">
+      <c r="BR4" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="BS4" s="63" t="s">
+      <c r="BS4" s="37" t="s">
         <v>60</v>
       </c>
+      <c r="BT4" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="BU4" s="36" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="5" spans="2:71" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:73" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
@@ -2047,24 +2066,27 @@
       <c r="BO5" s="22"/>
       <c r="BP5" s="23"/>
       <c r="BQ5" s="33"/>
-      <c r="BR5" s="65"/>
-      <c r="BS5" s="66"/>
+      <c r="BR5" s="39"/>
+      <c r="BS5" s="40"/>
+      <c r="BT5" s="33"/>
+      <c r="BU5" s="66"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <dataConsolidate/>
-  <mergeCells count="19">
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AO3"/>
-    <mergeCell ref="BD3:BD4"/>
-    <mergeCell ref="BD2:BS2"/>
-    <mergeCell ref="BE3:BP3"/>
-    <mergeCell ref="D2:BC2"/>
+  <mergeCells count="20">
+    <mergeCell ref="BT3:BU3"/>
+    <mergeCell ref="BD2:BU2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:H3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AO3"/>
+    <mergeCell ref="BD3:BD4"/>
+    <mergeCell ref="BE3:BP3"/>
+    <mergeCell ref="D2:BC2"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:R3"/>
     <mergeCell ref="S3:T3"/>
